--- a/DDAf_2024_Tableau_annexe_Tab23.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2471A3D5-50B9-4CE8-B9E5-6FD0CB3BE77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB012E4-CD33-4470-B042-F765C09BB1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{624157C7-6C06-4B80-9412-19B82AA23DC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67556104-497D-4368-8572-338D51F12916}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -1569,22 +1569,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68460855-6EF0-4B2D-BE96-86FC1D9BF90B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE976DFB-7A9F-4895-9EBF-651F9A8D0FE6}">
   <dimension ref="A1:AE114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="12.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="12.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1618,7 +1618,7 @@
       <c r="AD1" s="4"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:31" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>10.07386</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>1.6664000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>37</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>39</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>18.623000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>43</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>7.3497899999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>45</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>0.18614</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>47</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>49</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>53.551609999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>51</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>53</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>260.35079999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>55</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>3.6869399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>57</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>23.659600000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>59</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>61</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>63</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>1.42869</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>65</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>3.1353599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>2.2675299999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>71</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>53</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>34.275320000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>74</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>76</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>78</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>80</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1.72814</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>82</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>30.483350000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>84</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>5.79108</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>86</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>3.4115799999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>88</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>4.0302300000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>90</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>1.9609999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>92</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>94</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>96</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1.6932</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>98</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>17.737400000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>100</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>5.0975299999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>53</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>69.99212</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>103</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>105</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>107</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>1.21329</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>109</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>111</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>102.02142000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>113</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
         <v>53</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>260.63470999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>116</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>28.140499999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>118</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>24.875050000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>120</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>122</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>58.074129999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>124</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>0.22398999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>126</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>128</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>6.2442099999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>130</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>132</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>134</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>34.231990000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>136</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>3.66811</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>138</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>113.7</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>140</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>17.301089999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>142</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>144</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>1.7948</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="39" t="s">
         <v>146</v>
@@ -7316,7 +7316,7 @@
         <v>359.05387000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="63"/>
       <c r="B62" s="64" t="s">
         <v>147</v>
@@ -7409,7 +7409,7 @@
         <v>984.30682000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="63"/>
       <c r="B63" s="69" t="s">
         <v>148</v>
@@ -7502,7 +7502,7 @@
         <v>38172.479449999999</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="74"/>
       <c r="B64" s="75" t="s">
         <v>149</v>
@@ -7595,7 +7595,7 @@
         <v>9046.0555399999994</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="74"/>
       <c r="B65" s="69" t="s">
         <v>150</v>
@@ -7688,7 +7688,7 @@
         <v>18320.4935</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="74"/>
       <c r="B66" s="83" t="s">
         <v>151</v>
@@ -7781,7 +7781,7 @@
         <v>39156.786269999997</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="74"/>
       <c r="B67" s="69" t="s">
         <v>152</v>
@@ -7874,7 +7874,7 @@
         <v>300.06491999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="74"/>
       <c r="B68" s="69" t="s">
         <v>153</v>
@@ -7967,7 +7967,7 @@
         <v>594.77898000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="74"/>
       <c r="B69" s="69" t="s">
         <v>154</v>
@@ -8060,7 +8060,7 @@
         <v>64.170810000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="74"/>
       <c r="B70" s="69" t="s">
         <v>155</v>
@@ -8153,7 +8153,7 @@
         <v>48.37941</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="74"/>
       <c r="B71" s="69" t="s">
         <v>156</v>
@@ -8246,7 +8246,7 @@
         <v>359.05387000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="74"/>
       <c r="B72" s="69" t="s">
         <v>157</v>
@@ -8339,7 +8339,7 @@
         <v>39.002220000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="74"/>
       <c r="B73" s="69" t="s">
         <v>158</v>
@@ -8432,7 +8432,7 @@
         <v>290.44583</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="74"/>
       <c r="B74" s="69" t="s">
         <v>158</v>
@@ -8525,7 +8525,7 @@
         <v>135.63471000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="74"/>
       <c r="B75" s="69" t="s">
         <v>159</v>
@@ -8618,7 +8618,7 @@
         <v>17.423649999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="74"/>
       <c r="B76" s="88" t="s">
         <v>160</v>
@@ -8711,7 +8711,7 @@
         <v>4368.9229299999997</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="74"/>
       <c r="B77" s="69" t="s">
         <v>161</v>
@@ -8804,7 +8804,7 @@
         <v>8452.0426000000007</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="74"/>
       <c r="B78" s="69" t="s">
         <v>161</v>
@@ -8897,7 +8897,7 @@
         <v>2990.98855</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="74"/>
       <c r="B79" s="83" t="s">
         <v>162</v>
@@ -8990,7 +8990,7 @@
         <v>10049.404060000001</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="74"/>
       <c r="B80" s="69" t="s">
         <v>163</v>
@@ -9083,7 +9083,7 @@
         <v>41.683369999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="74"/>
       <c r="B81" s="69" t="s">
         <v>164</v>
@@ -9176,7 +9176,7 @@
         <v>900.09169999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="74"/>
       <c r="B82" s="69" t="s">
         <v>165</v>
@@ -9269,7 +9269,7 @@
         <v>942.62345000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="74"/>
       <c r="B83" s="69" t="s">
         <v>166</v>
@@ -9362,7 +9362,7 @@
         <v>37272.387750000002</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="74"/>
       <c r="B84" s="88" t="s">
         <v>167</v>
@@ -9455,7 +9455,7 @@
         <v>116.02641</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="74"/>
       <c r="B85" s="93" t="s">
         <v>168</v>
@@ -9548,7 +9548,7 @@
         <v>4.0636799999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="74"/>
       <c r="B86" s="69" t="s">
         <v>169</v>
@@ -9641,7 +9641,7 @@
         <v>727.51585999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="74"/>
       <c r="B87" s="69" t="s">
         <v>170</v>
@@ -9734,7 +9734,7 @@
         <v>5344.4285399999999</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="74"/>
       <c r="B88" s="69" t="s">
         <v>171</v>
@@ -9827,7 +9827,7 @@
         <v>140.74494000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="74"/>
       <c r="B89" s="69" t="s">
         <v>172</v>
@@ -9920,7 +9920,7 @@
         <v>23307.23144</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="74"/>
       <c r="B90" s="83" t="s">
         <v>173</v>
@@ -10013,7 +10013,7 @@
         <v>9430.1754000000092</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="74"/>
       <c r="B91" s="69" t="s">
         <v>174</v>
@@ -10106,7 +10106,7 @@
         <v>249.07508000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="74"/>
       <c r="B92" s="69" t="s">
         <v>175</v>
@@ -10199,7 +10199,7 @@
         <v>610.50067000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="74"/>
       <c r="B93" s="69" t="s">
         <v>176</v>
@@ -10292,7 +10292,7 @@
         <v>3.43119</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="74"/>
       <c r="B94" s="69" t="s">
         <v>177</v>
@@ -10385,7 +10385,7 @@
         <v>102.53394</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="74"/>
       <c r="B95" s="69" t="s">
         <v>178</v>
@@ -10478,7 +10478,7 @@
         <v>188.15620000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="74"/>
       <c r="B96" s="69" t="s">
         <v>179</v>
@@ -10571,7 +10571,7 @@
         <v>336.12898999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="74"/>
       <c r="B97" s="88" t="s">
         <v>180</v>
@@ -10664,7 +10664,7 @@
         <v>464.53843000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="74"/>
       <c r="B98" s="83" t="s">
         <v>181</v>
@@ -10757,7 +10757,7 @@
         <v>976.24905999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="95"/>
       <c r="B99" s="96"/>
       <c r="C99" s="71"/>
@@ -10790,7 +10790,7 @@
       <c r="AD99" s="71"/>
       <c r="AE99" s="71"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>182</v>
       </c>
@@ -10824,7 +10824,7 @@
       <c r="AD100" s="97"/>
       <c r="AE100" s="97"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>183</v>
       </c>
@@ -10858,7 +10858,7 @@
       <c r="AD101" s="97"/>
       <c r="AE101" s="97"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>184</v>
       </c>
@@ -10892,7 +10892,7 @@
       <c r="AD102" s="97"/>
       <c r="AE102" s="97"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>185</v>
       </c>
@@ -10926,7 +10926,7 @@
       <c r="AD103" s="97"/>
       <c r="AE103" s="97"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>186</v>
       </c>
@@ -10960,7 +10960,7 @@
       <c r="AD104" s="97"/>
       <c r="AE104" s="97"/>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C105" s="97"/>
       <c r="D105" s="97"/>
       <c r="E105" s="97"/>
@@ -10991,7 +10991,7 @@
       <c r="AD105" s="97"/>
       <c r="AE105" s="97"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C106" s="97"/>
       <c r="D106" s="97"/>
       <c r="E106" s="97"/>
@@ -11022,7 +11022,7 @@
       <c r="AD106" s="97"/>
       <c r="AE106" s="97"/>
     </row>
-    <row r="107" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="98" t="s">
         <v>187</v>
       </c>
@@ -11056,7 +11056,7 @@
       <c r="AD107" s="97"/>
       <c r="AE107" s="97"/>
     </row>
-    <row r="108" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="98"/>
       <c r="C108" s="97"/>
       <c r="D108" s="97"/>
@@ -11088,7 +11088,7 @@
       <c r="AD108" s="97"/>
       <c r="AE108" s="97"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>189</v>
       </c>
@@ -11122,7 +11122,7 @@
       <c r="AD109" s="97"/>
       <c r="AE109" s="97"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>190</v>
       </c>
@@ -11156,7 +11156,7 @@
       <c r="AD110" s="97"/>
       <c r="AE110" s="97"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B111" s="100" t="s">
         <v>191</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="AD111" s="97"/>
       <c r="AE111" s="97"/>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>188</v>
       </c>
@@ -11224,7 +11224,7 @@
       <c r="AD112" s="97"/>
       <c r="AE112" s="97"/>
     </row>
-    <row r="113" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="97"/>
       <c r="D113" s="97"/>
@@ -11256,7 +11256,7 @@
       <c r="AD113" s="97"/>
       <c r="AE113" s="97"/>
     </row>
-    <row r="114" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="97"/>
       <c r="D114" s="97"/>
@@ -11290,11 +11290,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{04EBBCEB-703C-4EF9-B670-DEF11CAFCED1}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{01DBE639-4C94-42D3-BEBA-9100AE795E67}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{F1DA693E-2E58-425D-A1D4-140B47C783AE}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{7219C656-E8B4-42E9-B4AA-DECF1BBF9962}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{AC927BC0-66C4-4DC7-95F1-4B7F72D75235}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{2F0520E0-EA99-40FA-B420-3F6FAABC6A7B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4AFF0FB5-8A20-484B-AACD-7C1444DD9454}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{C6C2B90E-2B5D-4E09-A35C-146468AA44EA}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{96598C4D-25A6-41F5-B632-87FBAEAC2340}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{765EDB01-23C4-49D9-B737-F79D767D4289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab23.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB012E4-CD33-4470-B042-F765C09BB1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC827C2E-7339-4A24-9F95-59AE6FF70FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67556104-497D-4368-8572-338D51F12916}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{C0C32432-3784-4624-A2D5-CD751BEFB62A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -1252,8 +1252,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1569,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE976DFB-7A9F-4895-9EBF-651F9A8D0FE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A17303-7CB0-418B-AFD9-EEDCA8DF093E}">
   <dimension ref="A1:AE114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1578,9 +1578,9 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="100" bestFit="1" customWidth="1"/>
     <col min="4" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="12.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="12.42578125" style="100" bestFit="1" customWidth="1"/>
     <col min="27" max="31" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11157,7 +11157,7 @@
       <c r="AE110" s="97"/>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B111" s="100" t="s">
+      <c r="B111" s="99" t="s">
         <v>191</v>
       </c>
       <c r="C111" s="97"/>
@@ -11191,7 +11191,7 @@
       <c r="AE111" s="97"/>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="99" t="s">
         <v>188</v>
       </c>
       <c r="C112" s="97"/>
@@ -11290,11 +11290,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{2F0520E0-EA99-40FA-B420-3F6FAABC6A7B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4AFF0FB5-8A20-484B-AACD-7C1444DD9454}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{C6C2B90E-2B5D-4E09-A35C-146468AA44EA}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{96598C4D-25A6-41F5-B632-87FBAEAC2340}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{765EDB01-23C4-49D9-B737-F79D767D4289}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E97590CE-FF7B-489E-A8D3-E4897404955E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{0CD55DA6-1188-4C45-BD20-2B9CD7E517A7}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{9E44DC20-5B97-4B29-B3D8-7C14DD892040}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{D0F559CC-6428-4EBE-ACE0-42979F779F45}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{EA452CEB-649C-4A28-B7C4-577CA2E5898B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab23.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC827C2E-7339-4A24-9F95-59AE6FF70FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A11AA2-DE90-44A8-B397-3198E1DC39AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{C0C32432-3784-4624-A2D5-CD751BEFB62A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{272ECD93-9629-44D1-91E9-46BDDF0D0DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="194">
   <si>
     <t>Tableau 23 : Durabilité écologique</t>
   </si>
@@ -518,13 +518,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1569,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A17303-7CB0-418B-AFD9-EEDCA8DF093E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E786C9F-5CA8-4DAB-A0FE-88A1CBB8FBCD}">
   <dimension ref="A1:AE114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -8435,7 +8441,7 @@
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="74"/>
       <c r="B74" s="69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C74" s="80">
         <v>578214.1</v>
@@ -8528,7 +8534,7 @@
     <row r="75" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="74"/>
       <c r="B75" s="69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C75" s="70">
         <v>208720</v>
@@ -8621,7 +8627,7 @@
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="74"/>
       <c r="B76" s="88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C76" s="89">
         <v>449253.57699999999</v>
@@ -8714,7 +8720,7 @@
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="74"/>
       <c r="B77" s="69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C77" s="80">
         <v>1770747.105</v>
@@ -8807,7 +8813,7 @@
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="74"/>
       <c r="B78" s="69" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C78" s="80">
         <v>425434.54749999999</v>
@@ -8900,7 +8906,7 @@
     <row r="79" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="74"/>
       <c r="B79" s="83" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C79" s="84">
         <v>3773849.2914999998</v>
@@ -8993,7 +8999,7 @@
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="74"/>
       <c r="B80" s="69" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C80" s="80">
         <v>899131.4</v>
@@ -9086,7 +9092,7 @@
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="74"/>
       <c r="B81" s="69" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C81" s="80">
         <v>2952784.4649</v>
@@ -9179,7 +9185,7 @@
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="74"/>
       <c r="B82" s="69" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C82" s="80">
         <v>2111307.5871000001</v>
@@ -9272,7 +9278,7 @@
     <row r="83" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="74"/>
       <c r="B83" s="69" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C83" s="70">
         <v>7453262.6505000005</v>
@@ -9365,7 +9371,7 @@
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="74"/>
       <c r="B84" s="88" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C84" s="89">
         <v>1354242.7871000001</v>
@@ -9458,7 +9464,7 @@
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="74"/>
       <c r="B85" s="93" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C85" s="80">
         <v>148655</v>
@@ -9551,7 +9557,7 @@
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="74"/>
       <c r="B86" s="69" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C86" s="80">
         <v>1187909.2</v>
@@ -9644,7 +9650,7 @@
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="74"/>
       <c r="B87" s="69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C87" s="80">
         <v>1290305.7749000001</v>
@@ -9737,7 +9743,7 @@
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="74"/>
       <c r="B88" s="69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C88" s="80">
         <v>468241</v>
@@ -9830,7 +9836,7 @@
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="74"/>
       <c r="B89" s="69" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C89" s="80">
         <v>5154385.8720000004</v>
@@ -9923,7 +9929,7 @@
     <row r="90" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="74"/>
       <c r="B90" s="83" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C90" s="84">
         <v>3721541.4685</v>
@@ -10016,7 +10022,7 @@
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="74"/>
       <c r="B91" s="69" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C91" s="80">
         <v>1813344.8870999999</v>
@@ -10109,7 +10115,7 @@
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="74"/>
       <c r="B92" s="69" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C92" s="80">
         <v>264237</v>
@@ -10202,7 +10208,7 @@
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="74"/>
       <c r="B93" s="69" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C93" s="80">
         <v>4548.1000000000004</v>
@@ -10295,7 +10301,7 @@
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="74"/>
       <c r="B94" s="69" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C94" s="80">
         <v>116517.8</v>
@@ -10388,7 +10394,7 @@
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="74"/>
       <c r="B95" s="69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C95" s="80">
         <v>865853.25439999998</v>
@@ -10481,7 +10487,7 @@
     <row r="96" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="74"/>
       <c r="B96" s="69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C96" s="70">
         <v>832383.17489999998</v>
@@ -10574,7 +10580,7 @@
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="74"/>
       <c r="B97" s="88" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C97" s="89">
         <v>1469681.5544</v>
@@ -10667,7 +10673,7 @@
     <row r="98" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="74"/>
       <c r="B98" s="83" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C98" s="84">
         <v>630368</v>
@@ -10792,7 +10798,7 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C100" s="97"/>
       <c r="D100" s="97"/>
@@ -10826,7 +10832,7 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C101" s="97"/>
       <c r="D101" s="97"/>
@@ -10860,7 +10866,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C102" s="97"/>
       <c r="D102" s="97"/>
@@ -10894,7 +10900,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C103" s="97"/>
       <c r="D103" s="97"/>
@@ -10928,7 +10934,7 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C104" s="97"/>
       <c r="D104" s="97"/>
@@ -11024,7 +11030,7 @@
     </row>
     <row r="107" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="98" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C107" s="97"/>
       <c r="D107" s="97"/>
@@ -11090,7 +11096,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C109" s="97"/>
       <c r="D109" s="97"/>
@@ -11124,7 +11130,7 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C110" s="97"/>
       <c r="D110" s="97"/>
@@ -11158,7 +11164,7 @@
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B111" s="99" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C111" s="97"/>
       <c r="D111" s="97"/>
@@ -11192,7 +11198,7 @@
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B112" s="99" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C112" s="97"/>
       <c r="D112" s="97"/>
@@ -11290,11 +11296,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E97590CE-FF7B-489E-A8D3-E4897404955E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{0CD55DA6-1188-4C45-BD20-2B9CD7E517A7}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{9E44DC20-5B97-4B29-B3D8-7C14DD892040}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{D0F559CC-6428-4EBE-ACE0-42979F779F45}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{EA452CEB-649C-4A28-B7C4-577CA2E5898B}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7C9CB5B2-FCE9-470D-9E43-86F9D27B4100}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9FBB63DE-DE4C-41D3-8ED4-D872067FE910}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{C886C883-4419-4567-87C6-433AB2B8320B}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{EB40FA0F-3722-45D1-999A-0134A4A22F83}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{3156ECE6-F00A-4665-B908-D4B7B202AFD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
